--- a/data/PET_PRI_SPT_S1_M.xlsx
+++ b/data/PET_PRI_SPT_S1_M.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB315F4-A3C8-E040-B00B-18FBBB72C577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -16,8 +17,16 @@
     <sheet name="Data 6" sheetId="17" r:id="rId7"/>
     <sheet name="Data 7" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,7 +87,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>8/2018</t>
+    <t>7/2020</t>
   </si>
   <si>
     <t>1/15/1986</t>
@@ -120,13 +129,13 @@
     <t>Release Date:</t>
   </si>
   <si>
-    <t>9/19/2018</t>
+    <t>8/26/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>9/26/2018</t>
+    <t>9/2/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -153,7 +162,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>9/19/2018 10:56:23 AM</t>
+    <t>8/26/2020 10:46:37 AM</t>
   </si>
   <si>
     <t>Data 1: Crude Oil</t>
@@ -477,10 +486,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="logo-thomsonreuters">
+        <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A23343-71C1-904B-B4E1-32B9BD9DC501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74859B45-96EF-1044-A247-33DDC185729B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,7 +837,7 @@
   </sheetPr>
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1106,13 +1115,13 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1141,7 +1150,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -5418,7 +5427,260 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A396" s="15"/>
+      <c r="A396" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B396">
+        <v>70.23</v>
+      </c>
+      <c r="C396">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B397">
+        <v>70.75</v>
+      </c>
+      <c r="C397">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B398">
+        <v>56.96</v>
+      </c>
+      <c r="C398">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B399">
+        <v>49.52</v>
+      </c>
+      <c r="C399">
+        <v>57.36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B400">
+        <v>51.38</v>
+      </c>
+      <c r="C400">
+        <v>59.41</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B401">
+        <v>54.95</v>
+      </c>
+      <c r="C401">
+        <v>63.96</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B402">
+        <v>58.15</v>
+      </c>
+      <c r="C402">
+        <v>66.14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B403">
+        <v>63.86</v>
+      </c>
+      <c r="C403">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B404">
+        <v>60.83</v>
+      </c>
+      <c r="C404">
+        <v>71.319999999999993</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B405">
+        <v>54.66</v>
+      </c>
+      <c r="C405">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B406">
+        <v>57.35</v>
+      </c>
+      <c r="C406">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B407">
+        <v>54.81</v>
+      </c>
+      <c r="C407">
+        <v>59.04</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B408">
+        <v>56.95</v>
+      </c>
+      <c r="C408">
+        <v>62.83</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B409">
+        <v>53.96</v>
+      </c>
+      <c r="C409">
+        <v>59.71</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B410">
+        <v>57.03</v>
+      </c>
+      <c r="C410">
+        <v>63.21</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B411">
+        <v>59.88</v>
+      </c>
+      <c r="C411">
+        <v>67.31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B412">
+        <v>57.52</v>
+      </c>
+      <c r="C412">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B413">
+        <v>50.54</v>
+      </c>
+      <c r="C413">
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B414">
+        <v>29.21</v>
+      </c>
+      <c r="C414">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B415">
+        <v>16.55</v>
+      </c>
+      <c r="C415">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B416">
+        <v>28.56</v>
+      </c>
+      <c r="C416">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B417">
+        <v>38.31</v>
+      </c>
+      <c r="C417">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B418">
+        <v>40.71</v>
+      </c>
+      <c r="C418">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5435,7 +5697,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -5458,7 +5720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -5470,7 +5732,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -9740,7 +10002,260 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A391" s="15"/>
+      <c r="A391" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B391">
+        <v>2.093</v>
+      </c>
+      <c r="C391">
+        <v>2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B392">
+        <v>2.028</v>
+      </c>
+      <c r="C392">
+        <v>1.9690000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B393">
+        <v>1.625</v>
+      </c>
+      <c r="C393">
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B394">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="C394">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B395">
+        <v>1.425</v>
+      </c>
+      <c r="C395">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B396">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="C396">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B397">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="C397">
+        <v>1.8169999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B398">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="C398">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B399">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="C399">
+        <v>1.881</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B400">
+        <v>1.74</v>
+      </c>
+      <c r="C400">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B401">
+        <v>1.89</v>
+      </c>
+      <c r="C401">
+        <v>1.8540000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B402">
+        <v>1.694</v>
+      </c>
+      <c r="C402">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B403">
+        <v>1.726</v>
+      </c>
+      <c r="C403">
+        <v>1.681</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B404">
+        <v>1.728</v>
+      </c>
+      <c r="C404">
+        <v>1.6459999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B405">
+        <v>1.724</v>
+      </c>
+      <c r="C405">
+        <v>1.6359999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B406">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="C406">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B407">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="C407">
+        <v>1.587</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B408">
+        <v>1.58</v>
+      </c>
+      <c r="C408">
+        <v>1.4530000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B409">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C409">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B410">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C410">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B411">
+        <v>0.876</v>
+      </c>
+      <c r="C411">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B412">
+        <v>1.121</v>
+      </c>
+      <c r="C412">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B413">
+        <v>1.22</v>
+      </c>
+      <c r="C413">
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -9757,7 +10272,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -9780,7 +10295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -9789,7 +10304,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -11263,7 +11778,191 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="15"/>
+      <c r="A187" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B187">
+        <v>2.2240000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B188">
+        <v>2.254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B189">
+        <v>1.7390000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B190">
+        <v>1.597</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B191">
+        <v>1.607</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B192">
+        <v>1.8169999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B193">
+        <v>2.004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B194">
+        <v>2.512</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B195">
+        <v>2.2389999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B196">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B197">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B198">
+        <v>1.8089999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B199">
+        <v>2.0590000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B200">
+        <v>2.2189999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B201">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B202">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B203">
+        <v>1.849</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B204">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B205">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B206">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B207">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B208">
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B209">
+        <v>1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -11280,7 +11979,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -11303,7 +12002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -11312,7 +12011,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -14418,7 +15117,191 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A391" s="15"/>
+      <c r="A391" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B391">
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A392" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B392">
+        <v>2.3130000000000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A393" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B393">
+        <v>2.0329999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A394" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B394">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A395" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B395">
+        <v>1.819</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A396" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B396">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A397" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B397">
+        <v>1.9650000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A398" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B398">
+        <v>2.036</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A399" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B399">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A400" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B400">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A401" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B401">
+        <v>1.8879999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A402" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B402">
+        <v>1.7949999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A403" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B403">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A404" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B404">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A405" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B405">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A406" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B406">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A407" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B407">
+        <v>1.829</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A408" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B408">
+        <v>1.589</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A409" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B409">
+        <v>1.1559999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A410" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B410">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A411" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B411">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A412" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B412">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A413" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B413">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A414" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -14435,7 +15318,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -14458,7 +15341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -14473,7 +15356,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -17522,8 +18405,330 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" s="15"/>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A273" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B273">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="C273">
+        <v>2.21</v>
+      </c>
+      <c r="D273">
+        <v>2.2930000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A274" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B274">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="C274">
+        <v>2.282</v>
+      </c>
+      <c r="D274">
+        <v>2.3690000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A275" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B275">
+        <v>2.048</v>
+      </c>
+      <c r="C275">
+        <v>1.962</v>
+      </c>
+      <c r="D275">
+        <v>2.0550000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A276" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B276">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="C276">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="D276">
+        <v>1.7929999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A277" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B277">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C277">
+        <v>1.774</v>
+      </c>
+      <c r="D277">
+        <v>1.8120000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A278" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B278">
+        <v>1.962</v>
+      </c>
+      <c r="C278">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D278">
+        <v>1.9350000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A279" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B279">
+        <v>1.988</v>
+      </c>
+      <c r="C279">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="D279">
+        <v>2.0169999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A280" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B280">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="C280">
+        <v>2.012</v>
+      </c>
+      <c r="D280">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B281">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="C281">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="D281">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B282">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C282">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="D282">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B283">
+        <v>1.92</v>
+      </c>
+      <c r="C283">
+        <v>1.873</v>
+      </c>
+      <c r="D283">
+        <v>1.952</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A284" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B284">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="C284">
+        <v>1.788</v>
+      </c>
+      <c r="D284">
+        <v>1.869</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A285" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B285">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="C285">
+        <v>1.895</v>
+      </c>
+      <c r="D285">
+        <v>1.9970000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A286" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B286">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="C286">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="D286">
+        <v>2.0649999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A287" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B287">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="C287">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="D287">
+        <v>2.109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A288" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B288">
+        <v>1.988</v>
+      </c>
+      <c r="C288">
+        <v>1.899</v>
+      </c>
+      <c r="D288">
+        <v>1.9630000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A289" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B289">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="C289">
+        <v>1.77</v>
+      </c>
+      <c r="D289">
+        <v>1.9059999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A290" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B290">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="C290">
+        <v>1.552</v>
+      </c>
+      <c r="D290">
+        <v>1.7509999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A291" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B291">
+        <v>1.19</v>
+      </c>
+      <c r="C291">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="D291">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B292">
+        <v>0.88</v>
+      </c>
+      <c r="C292">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D292">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B293">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C293">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D293">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B294">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="C294">
+        <v>1.083</v>
+      </c>
+      <c r="D294">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A295" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B295">
+        <v>1.24</v>
+      </c>
+      <c r="C295">
+        <v>1.19</v>
+      </c>
+      <c r="D295">
+        <v>1.262</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A296" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -17540,7 +18745,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -17563,7 +18768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -17572,7 +18777,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -20310,7 +21515,191 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="15"/>
+      <c r="A345" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B345">
+        <v>2.1890000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A346" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B346">
+        <v>2.2490000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A347" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B347">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A348" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B348">
+        <v>1.696</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A349" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B349">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A350" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B350">
+        <v>1.9139999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A351" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B351">
+        <v>1.9019999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A352" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B352">
+        <v>1.9770000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A353" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B353">
+        <v>1.972</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A354" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B354">
+        <v>1.8169999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A355" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B355">
+        <v>1.913</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A356" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B356">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A357" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B357">
+        <v>1.8740000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A358" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B358">
+        <v>1.861</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A359" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B359">
+        <v>1.8240000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A360" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B360">
+        <v>1.893</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A361" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B361">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A362" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B362">
+        <v>1.5089999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A363" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B363">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A364" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B364">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A365" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B365">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A366" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B366">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A367" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B367">
+        <v>1.0840000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A368" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -20327,7 +21716,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -20350,7 +21739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -20359,7 +21748,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -22889,7 +24278,191 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319" s="15"/>
+      <c r="A319" s="15">
+        <v>43358</v>
+      </c>
+      <c r="B319">
+        <v>1.0569999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="15">
+        <v>43388</v>
+      </c>
+      <c r="B320">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="15">
+        <v>43419</v>
+      </c>
+      <c r="B321">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="15">
+        <v>43449</v>
+      </c>
+      <c r="B322">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B323">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B324">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A325" s="15">
+        <v>43539</v>
+      </c>
+      <c r="B325">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="15">
+        <v>43570</v>
+      </c>
+      <c r="B326">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A327" s="15">
+        <v>43600</v>
+      </c>
+      <c r="B327">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B328">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="15">
+        <v>43661</v>
+      </c>
+      <c r="B329">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="15">
+        <v>43692</v>
+      </c>
+      <c r="B330">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A331" s="15">
+        <v>43723</v>
+      </c>
+      <c r="B331">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A332" s="15">
+        <v>43753</v>
+      </c>
+      <c r="B332">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A333" s="15">
+        <v>43784</v>
+      </c>
+      <c r="B333">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A334" s="15">
+        <v>43814</v>
+      </c>
+      <c r="B334">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="15">
+        <v>43845</v>
+      </c>
+      <c r="B335">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A336" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B336">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A337" s="15">
+        <v>43905</v>
+      </c>
+      <c r="B337">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B338">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" s="15">
+        <v>43966</v>
+      </c>
+      <c r="B339">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" s="15">
+        <v>43997</v>
+      </c>
+      <c r="B340">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B341">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
